--- a/CPO Dashboard/CPO_Dashboard.xlsx
+++ b/CPO Dashboard/CPO_Dashboard.xlsx
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -786,7 +786,7 @@
         <v>219</v>
       </c>
       <c r="D10" s="9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10">
         <f>B10*D10</f>
@@ -830,7 +830,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E11" s="10">
         <f>B11*D11</f>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10">
         <f>B12*D12</f>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10">
         <f>B13*D13</f>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10">
         <f>B14*D14</f>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C6" s="18" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1159,14 +1159,14 @@
         </is>
       </c>
       <c r="B11" s="19" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="C11" s="11">
         <f>B11*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D11" s="4" t="n">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="E11" s="20">
         <f>IF(D11&lt;C11,"STRIKE RISK!","OK")</f>
@@ -1184,14 +1184,14 @@
         </is>
       </c>
       <c r="B12" s="19" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="C12" s="11">
         <f>B12*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D12" s="4" t="n">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="E12" s="20">
         <f>IF(D12&lt;C12,"STRIKE RISK!","OK")</f>
@@ -1209,14 +1209,14 @@
         </is>
       </c>
       <c r="B13" s="19" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="C13" s="11">
         <f>B13*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D13" s="4" t="n">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="E13" s="20">
         <f>IF(D13&lt;C13,"STRIKE RISK!","OK")</f>
@@ -1234,14 +1234,14 @@
         </is>
       </c>
       <c r="B14" s="19" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="C14" s="11">
         <f>B14*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D14" s="4" t="n">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="E14" s="20">
         <f>IF(D14&lt;C14,"STRIKE RISK!","OK")</f>
@@ -1259,14 +1259,14 @@
         </is>
       </c>
       <c r="B15" s="19" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="C15" s="11">
         <f>B15*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D15" s="4" t="n">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="E15" s="20">
         <f>IF(D15&lt;C15,"STRIKE RISK!","OK")</f>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="B23" s="9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C23" s="25" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C24" s="25" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C25" s="25" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="B26" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="25" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="B27" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" s="25" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">

--- a/CPO Dashboard/CPO_Dashboard.xlsx
+++ b/CPO Dashboard/CPO_Dashboard.xlsx
@@ -189,7 +189,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00C00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFC7CE"/>
+          <bgColor rgb="00FFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -273,6 +285,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -283,7 +296,144 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>People Expense Breakdown</a:t>
+              <a:t>The Strike Zone: Salary vs Inflation</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Proposed Salary</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'COMPENSATION_STRATEGY'!$A$11:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'COMPENSATION_STRATEGY'!$D$11:$D$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Inflation Floor</v>
+          </tx>
+          <spPr>
+            <a:ln w="20000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'COMPENSATION_STRATEGY'!$A$11:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'COMPENSATION_STRATEGY'!$C$11:$C$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Salary ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Labor Cost Distribution</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -295,11 +445,6 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'LABOR_COST_ANALYSIS'!C9</f>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln>
               <a:prstDash val="solid"/>
@@ -332,6 +477,33 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -1041,6 +1213,15 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F10:F14">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows" showValue="1" percent="0" reverse="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <cfvo type="num" val="20"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1133,7 +1314,7 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>Min Salary (Avoid Strike)</t>
+          <t>Inflation Floor</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -1428,12 +1609,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D11:D15">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>D11&lt;C11</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E11:E15">
-    <cfRule type="expression" priority="1" dxfId="0">
+    <cfRule type="expression" priority="2" dxfId="1">
       <formula>E11="STRIKE RISK!"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1443,7 +1630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1532,7 +1719,7 @@
     <row r="10">
       <c r="A10" s="20" t="inlineStr">
         <is>
-          <t>Base Payroll (8 Fortnights)</t>
+          <t>Base Salaries</t>
         </is>
       </c>
       <c r="B10" s="11">
@@ -1547,11 +1734,11 @@
     <row r="11">
       <c r="A11" s="20" t="inlineStr">
         <is>
-          <t>Training Budget</t>
+          <t>Overtime &amp; Bonuses</t>
         </is>
       </c>
       <c r="B11" s="11">
-        <f>COMPENSATION_STRATEGY!B23*C10</f>
+        <f>0</f>
         <v/>
       </c>
       <c r="C11" s="11">
@@ -1562,11 +1749,11 @@
     <row r="12">
       <c r="A12" s="20" t="inlineStr">
         <is>
-          <t>Health Insurance</t>
+          <t>Training &amp; Benefits</t>
         </is>
       </c>
       <c r="B12" s="11">
-        <f>COMPENSATION_STRATEGY!B24*C10</f>
+        <f>COMPENSATION_STRATEGY!B23*C10 + COMPENSATION_STRATEGY!B24*C10</f>
         <v/>
       </c>
       <c r="C12" s="11">
@@ -1592,7 +1779,7 @@
     <row r="14">
       <c r="A14" s="20" t="inlineStr">
         <is>
-          <t>Hiring &amp; Firing Costs</t>
+          <t>Hiring &amp; Firing</t>
         </is>
       </c>
       <c r="B14" s="11">
@@ -1611,7 +1798,7 @@
         </is>
       </c>
       <c r="B15" s="19" t="n">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="C15" s="11">
         <f>B15</f>
@@ -1637,17 +1824,6 @@
       </c>
       <c r="C19" s="11">
         <f>C17-B5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="inlineStr">
-        <is>
-          <t>Variance %</t>
-        </is>
-      </c>
-      <c r="C20" s="21">
-        <f>IF(B5&gt;0,C17/B5-1,0)</f>
         <v/>
       </c>
     </row>
@@ -1663,22 +1839,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1705,11 +1872,6 @@
           <t>Benefits &amp; Policies</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>Workforce Changes</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="inlineStr">
@@ -1732,21 +1894,6 @@
           <t>Value</t>
         </is>
       </c>
-      <c r="G5" s="24" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="H5" s="24" t="inlineStr">
-        <is>
-          <t>Hire</t>
-        </is>
-      </c>
-      <c r="I5" s="24" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1763,21 +1910,8 @@
           <t>Training Budget (% of Payroll)</t>
         </is>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="10">
         <f>COMPENSATION_STRATEGY!B23</f>
-        <v/>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="H6" s="10">
-        <f>WORKFORCE_PLANNING!G10</f>
-        <v/>
-      </c>
-      <c r="I6" s="10">
-        <f>WORKFORCE_PLANNING!H10</f>
         <v/>
       </c>
     </row>
@@ -1796,21 +1930,8 @@
           <t>Health Insurance (% of Payroll)</t>
         </is>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="10">
         <f>COMPENSATION_STRATEGY!B24</f>
-        <v/>
-      </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="H7" s="10">
-        <f>WORKFORCE_PLANNING!G11</f>
-        <v/>
-      </c>
-      <c r="I7" s="10">
-        <f>WORKFORCE_PLANNING!H11</f>
         <v/>
       </c>
     </row>
@@ -1829,21 +1950,8 @@
           <t>Profit Sharing (% of Net Profit)</t>
         </is>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="10">
         <f>COMPENSATION_STRATEGY!B25</f>
-        <v/>
-      </c>
-      <c r="G8" s="14" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="H8" s="10">
-        <f>WORKFORCE_PLANNING!G12</f>
-        <v/>
-      </c>
-      <c r="I8" s="10">
-        <f>WORKFORCE_PLANNING!H12</f>
         <v/>
       </c>
     </row>
@@ -1866,19 +1974,6 @@
         <f>COMPENSATION_STRATEGY!B26</f>
         <v/>
       </c>
-      <c r="G9" s="15" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="H9" s="10">
-        <f>WORKFORCE_PLANNING!G13</f>
-        <v/>
-      </c>
-      <c r="I9" s="10">
-        <f>WORKFORCE_PLANNING!H13</f>
-        <v/>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr">
@@ -1899,19 +1994,6 @@
         <f>COMPENSATION_STRATEGY!B27</f>
         <v/>
       </c>
-      <c r="G10" s="16" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="H10" s="10">
-        <f>WORKFORCE_PLANNING!G14</f>
-        <v/>
-      </c>
-      <c r="I10" s="10">
-        <f>WORKFORCE_PLANNING!H14</f>
-        <v/>
-      </c>
     </row>
     <row r="11">
       <c r="D11" s="20" t="inlineStr">
@@ -1919,7 +2001,7 @@
           <t>Reduction in Working Hours (%)</t>
         </is>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="10">
         <f>COMPENSATION_STRATEGY!B28</f>
         <v/>
       </c>

--- a/CPO Dashboard/CPO_Dashboard.xlsx
+++ b/CPO Dashboard/CPO_Dashboard.xlsx
@@ -23,7 +23,7 @@
     <numFmt numFmtId="164" formatCode="$#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,8 +54,16 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00006100"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="1"/>
       <color rgb="00C00000"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
       <b val="1"/>
@@ -69,7 +77,7 @@
       <i val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -136,6 +144,12 @@
         <bgColor rgb="009E480E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -155,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -176,15 +190,19 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -819,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,7 +886,12 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Benchmark (Sales Hire): $1,100</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -878,7 +901,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8">
@@ -952,10 +975,10 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="C10" s="8" t="n">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0</v>
@@ -996,10 +1019,10 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="C11" s="8" t="n">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>0</v>
@@ -1040,10 +1063,10 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="C12" s="8" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="D12" s="9" t="n">
         <v>0</v>
@@ -1084,10 +1107,10 @@
         </is>
       </c>
       <c r="B13" s="7" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="C13" s="8" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>0</v>
@@ -1128,10 +1151,10 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D14" s="9" t="n">
         <v>0</v>
@@ -1209,6 +1232,82 @@
       </c>
       <c r="K15" s="12">
         <f>SUM(K10:K14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>COST OPTIMIZER: HIRE vs OVERTIME</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="18" t="inlineStr">
+        <is>
+          <t>Global Workforce Deficit (Workers)</t>
+        </is>
+      </c>
+      <c r="B19" s="10">
+        <f>MAX(0, C15 - F15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="19" t="inlineStr">
+        <is>
+          <t>Strategy A: HIRE NEW STAFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="18" t="inlineStr">
+        <is>
+          <t>Total Cost (Upfront + Salary)</t>
+        </is>
+      </c>
+      <c r="B21" s="20">
+        <f>B19*($B$5 + 650)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19" t="inlineStr">
+        <is>
+          <t>Strategy B: OVERTIME</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="18" t="inlineStr">
+        <is>
+          <t>Max Overtime Capacity (Workers eq.)</t>
+        </is>
+      </c>
+      <c r="B23" s="10">
+        <f>F15*0.2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="18" t="inlineStr">
+        <is>
+          <t>Cost (Salary x 1.4)</t>
+        </is>
+      </c>
+      <c r="B24" s="20">
+        <f>MIN(B19, B23) * 650 * 1.4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="19" t="inlineStr">
+        <is>
+          <t>RECOMMENDATION:</t>
+        </is>
+      </c>
+      <c r="B25" s="21">
+        <f>IF(B19&gt;B23, "MUST HIRE (Capacity Exceeded)", IF(B24&lt;B21, "USE OVERTIME (Cheaper)", "HIRE (Cheaper)"))</f>
         <v/>
       </c>
     </row>
@@ -1256,7 +1355,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="22" t="inlineStr">
         <is>
           <t>CRITICAL: Set Inflation Rate from Case Guide to avoid STRIKES!</t>
         </is>
@@ -1269,6 +1368,13 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="23" t="inlineStr">
+        <is>
+          <t>HIGH ABSENTEEISM DETECTED. RISK OF STRIKE OR LOW CAPACITY. INCREASE HEALTH &amp; SAFETY BUDGET.</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -1278,7 +1384,7 @@
       <c r="B6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="18" t="inlineStr">
+      <c r="C6" s="22" t="inlineStr">
         <is>
           <t>&lt;-- CRITICAL: Get from Case Guide!</t>
         </is>
@@ -1339,21 +1445,21 @@
           <t>Center</t>
         </is>
       </c>
-      <c r="B11" s="19" t="n">
-        <v>0</v>
+      <c r="B11" s="24" t="n">
+        <v>650</v>
       </c>
       <c r="C11" s="11">
         <f>B11*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <f>IF(D11&lt;C11,"STRIKE RISK!","OK")</f>
-        <v/>
-      </c>
-      <c r="F11" s="21">
+        <v>656</v>
+      </c>
+      <c r="E11" s="18">
+        <f>IF(OR(D11&lt;C11, D11&lt;650),"STRIKE RISK!","OK")</f>
+        <v/>
+      </c>
+      <c r="F11" s="25">
         <f>IF(B11&gt;0,(D11/B11)-1-$B$6,0)</f>
         <v/>
       </c>
@@ -1364,21 +1470,21 @@
           <t>West</t>
         </is>
       </c>
-      <c r="B12" s="19" t="n">
-        <v>0</v>
+      <c r="B12" s="24" t="n">
+        <v>650</v>
       </c>
       <c r="C12" s="11">
         <f>B12*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <f>IF(D12&lt;C12,"STRIKE RISK!","OK")</f>
-        <v/>
-      </c>
-      <c r="F12" s="21">
+        <v>656</v>
+      </c>
+      <c r="E12" s="18">
+        <f>IF(OR(D12&lt;C12, D12&lt;650),"STRIKE RISK!","OK")</f>
+        <v/>
+      </c>
+      <c r="F12" s="25">
         <f>IF(B12&gt;0,(D12/B12)-1-$B$6,0)</f>
         <v/>
       </c>
@@ -1389,21 +1495,21 @@
           <t>North</t>
         </is>
       </c>
-      <c r="B13" s="19" t="n">
-        <v>0</v>
+      <c r="B13" s="24" t="n">
+        <v>650</v>
       </c>
       <c r="C13" s="11">
         <f>B13*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <f>IF(D13&lt;C13,"STRIKE RISK!","OK")</f>
-        <v/>
-      </c>
-      <c r="F13" s="21">
+        <v>656</v>
+      </c>
+      <c r="E13" s="18">
+        <f>IF(OR(D13&lt;C13, D13&lt;650),"STRIKE RISK!","OK")</f>
+        <v/>
+      </c>
+      <c r="F13" s="25">
         <f>IF(B13&gt;0,(D13/B13)-1-$B$6,0)</f>
         <v/>
       </c>
@@ -1414,21 +1520,21 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B14" s="19" t="n">
-        <v>0</v>
+      <c r="B14" s="24" t="n">
+        <v>650</v>
       </c>
       <c r="C14" s="11">
         <f>B14*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <f>IF(D14&lt;C14,"STRIKE RISK!","OK")</f>
-        <v/>
-      </c>
-      <c r="F14" s="21">
+        <v>656</v>
+      </c>
+      <c r="E14" s="18">
+        <f>IF(OR(D14&lt;C14, D14&lt;650),"STRIKE RISK!","OK")</f>
+        <v/>
+      </c>
+      <c r="F14" s="25">
         <f>IF(B14&gt;0,(D14/B14)-1-$B$6,0)</f>
         <v/>
       </c>
@@ -1439,34 +1545,34 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B15" s="19" t="n">
-        <v>0</v>
+      <c r="B15" s="24" t="n">
+        <v>650</v>
       </c>
       <c r="C15" s="11">
         <f>B15*(1+$B$6)</f>
         <v/>
       </c>
       <c r="D15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
-        <f>IF(D15&lt;C15,"STRIKE RISK!","OK")</f>
-        <v/>
-      </c>
-      <c r="F15" s="21">
+        <v>656</v>
+      </c>
+      <c r="E15" s="18">
+        <f>IF(OR(D15&lt;C15, D15&lt;650),"STRIKE RISK!","OK")</f>
+        <v/>
+      </c>
+      <c r="F15" s="25">
         <f>IF(B15&gt;0,(D15/B15)-1-$B$6,0)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="22" t="inlineStr">
+      <c r="A17" s="26" t="inlineStr">
         <is>
           <t>MOTIVATION ALERT:</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="23" t="inlineStr">
+      <c r="A18" s="27" t="inlineStr">
         <is>
           <t>Low Training Budget increases Defective Products!</t>
         </is>
@@ -1487,24 +1593,24 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24" t="inlineStr">
+      <c r="A22" s="28" t="inlineStr">
         <is>
           <t>Benefit Type</t>
         </is>
       </c>
-      <c r="B22" s="24" t="inlineStr">
+      <c r="B22" s="28" t="inlineStr">
         <is>
           <t>Decision Value</t>
         </is>
       </c>
-      <c r="C22" s="24" t="inlineStr">
+      <c r="C22" s="28" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="inlineStr">
+      <c r="A23" s="18" t="inlineStr">
         <is>
           <t>Training Budget (% of Payroll)</t>
         </is>
@@ -1512,14 +1618,14 @@
       <c r="B23" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="25" t="inlineStr">
+      <c r="C23" s="29" t="inlineStr">
         <is>
           <t>Low = More defects</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="inlineStr">
+      <c r="A24" s="18" t="inlineStr">
         <is>
           <t>Health Insurance (% of Payroll)</t>
         </is>
@@ -1527,14 +1633,14 @@
       <c r="B24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="25" t="inlineStr">
+      <c r="C24" s="29" t="inlineStr">
         <is>
           <t>Reduces absenteeism</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="inlineStr">
+      <c r="A25" s="18" t="inlineStr">
         <is>
           <t>Profit Sharing (% of Net Profit)</t>
         </is>
@@ -1542,14 +1648,14 @@
       <c r="B25" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="C25" s="29" t="inlineStr">
         <is>
           <t>Paid on net profit</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="inlineStr">
+      <c r="A26" s="18" t="inlineStr">
         <is>
           <t>Personal Days (per Worker)</t>
         </is>
@@ -1557,14 +1663,14 @@
       <c r="B26" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="25" t="inlineStr">
+      <c r="C26" s="29" t="inlineStr">
         <is>
           <t>Labor requirement</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="20" t="inlineStr">
+      <c r="A27" s="18" t="inlineStr">
         <is>
           <t>Union Representatives</t>
         </is>
@@ -1572,14 +1678,14 @@
       <c r="B27" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="25" t="inlineStr">
+      <c r="C27" s="29" t="inlineStr">
         <is>
           <t>Labor requirement</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="20" t="inlineStr">
+      <c r="A28" s="18" t="inlineStr">
         <is>
           <t>Reduction in Working Hours (%)</t>
         </is>
@@ -1587,14 +1693,14 @@
       <c r="B28" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="25" t="inlineStr">
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>Reduces capacity</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="20" t="inlineStr">
+      <c r="A29" s="18" t="inlineStr">
         <is>
           <t>Off-Days for Workers</t>
         </is>
@@ -1602,7 +1708,7 @@
       <c r="B29" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C29" s="25" t="inlineStr">
+      <c r="C29" s="29" t="inlineStr">
         <is>
           <t>Extra days off</t>
         </is>
@@ -1630,7 +1736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1673,8 +1779,8 @@
           <t>Previous Period Labor Cost</t>
         </is>
       </c>
-      <c r="B5" s="19" t="n">
-        <v>236412</v>
+      <c r="B5" s="24" t="n">
+        <v>361602</v>
       </c>
     </row>
     <row r="7">
@@ -1685,29 +1791,29 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24" t="inlineStr">
+      <c r="A8" s="28" t="inlineStr">
         <is>
           <t>Cost Category</t>
         </is>
       </c>
-      <c r="B8" s="24" t="inlineStr">
+      <c r="B8" s="28" t="inlineStr">
         <is>
           <t>Calculation</t>
         </is>
       </c>
-      <c r="C8" s="24" t="inlineStr">
+      <c r="C8" s="28" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="inlineStr">
-        <is>
-          <t>Total Planned Headcount</t>
-        </is>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="18" t="inlineStr">
+        <is>
+          <t>Total Planned Factory Headcount</t>
+        </is>
+      </c>
+      <c r="B9" s="7">
         <f>WORKFORCE_PLANNING!C15</f>
         <v/>
       </c>
@@ -1717,9 +1823,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="inlineStr">
-        <is>
-          <t>Base Salaries</t>
+      <c r="A10" s="18" t="inlineStr">
+        <is>
+          <t>Factory Base Salaries</t>
         </is>
       </c>
       <c r="B10" s="11">
@@ -1732,14 +1838,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="inlineStr">
+      <c r="A11" s="18" t="inlineStr">
         <is>
           <t>Overtime &amp; Bonuses</t>
         </is>
       </c>
-      <c r="B11" s="11">
-        <f>0</f>
-        <v/>
+      <c r="B11" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="C11" s="11">
         <f>B11</f>
@@ -1747,7 +1852,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="inlineStr">
+      <c r="A12" s="18" t="inlineStr">
         <is>
           <t>Training &amp; Benefits</t>
         </is>
@@ -1762,7 +1867,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="20" t="inlineStr">
+      <c r="A13" s="18" t="inlineStr">
         <is>
           <t>Profit Sharing</t>
         </is>
@@ -1777,12 +1882,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="20" t="inlineStr">
+      <c r="A14" s="18" t="inlineStr">
         <is>
           <t>Hiring &amp; Firing</t>
         </is>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="24">
         <f>WORKFORCE_PLANNING!K15</f>
         <v/>
       </c>
@@ -1792,38 +1897,43 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="20" t="inlineStr">
-        <is>
-          <t>Salesforce Payroll</t>
-        </is>
-      </c>
-      <c r="B15" s="19" t="n">
-        <v>0</v>
+      <c r="A15" s="30" t="inlineStr">
+        <is>
+          <t>SALESFORCE PAYROLL (Fixed)</t>
+        </is>
+      </c>
+      <c r="B15" s="24" t="n">
+        <v>45771</v>
       </c>
       <c r="C15" s="11">
         <f>B15</f>
         <v/>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="26" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Based on 0 salespeople @ $750/person (Admin Report)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="inlineStr">
         <is>
           <t>TOTAL PEOPLE EXPENSE</t>
         </is>
       </c>
-      <c r="C17" s="12">
-        <f>SUM(C10:C15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="inlineStr">
+      <c r="C16" s="12">
+        <f>SUM(C10:C14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="inlineStr">
         <is>
           <t>Variance vs Previous Period</t>
         </is>
       </c>
-      <c r="C19" s="11">
-        <f>C17-B5</f>
+      <c r="C18" s="11">
+        <f>C16-B5</f>
         <v/>
       </c>
     </row>
@@ -1874,22 +1984,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="24" t="inlineStr">
+      <c r="A5" s="28" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B5" s="24" t="inlineStr">
+      <c r="B5" s="28" t="inlineStr">
         <is>
           <t>Salary</t>
         </is>
       </c>
-      <c r="D5" s="24" t="inlineStr">
+      <c r="D5" s="28" t="inlineStr">
         <is>
           <t>Benefit</t>
         </is>
       </c>
-      <c r="E5" s="24" t="inlineStr">
+      <c r="E5" s="28" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -1905,7 +2015,7 @@
         <f>COMPENSATION_STRATEGY!D11</f>
         <v/>
       </c>
-      <c r="D6" s="20" t="inlineStr">
+      <c r="D6" s="18" t="inlineStr">
         <is>
           <t>Training Budget (% of Payroll)</t>
         </is>
@@ -1925,7 +2035,7 @@
         <f>COMPENSATION_STRATEGY!D12</f>
         <v/>
       </c>
-      <c r="D7" s="20" t="inlineStr">
+      <c r="D7" s="18" t="inlineStr">
         <is>
           <t>Health Insurance (% of Payroll)</t>
         </is>
@@ -1945,7 +2055,7 @@
         <f>COMPENSATION_STRATEGY!D13</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="inlineStr">
+      <c r="D8" s="18" t="inlineStr">
         <is>
           <t>Profit Sharing (% of Net Profit)</t>
         </is>
@@ -1965,7 +2075,7 @@
         <f>COMPENSATION_STRATEGY!D14</f>
         <v/>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="18" t="inlineStr">
         <is>
           <t>Personal Days (per Worker)</t>
         </is>
@@ -1985,7 +2095,7 @@
         <f>COMPENSATION_STRATEGY!D15</f>
         <v/>
       </c>
-      <c r="D10" s="20" t="inlineStr">
+      <c r="D10" s="18" t="inlineStr">
         <is>
           <t>Union Representatives</t>
         </is>
@@ -1996,7 +2106,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="20" t="inlineStr">
+      <c r="D11" s="18" t="inlineStr">
         <is>
           <t>Reduction in Working Hours (%)</t>
         </is>
@@ -2007,7 +2117,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="20" t="inlineStr">
+      <c r="D12" s="18" t="inlineStr">
         <is>
           <t>Off-Days for Workers</t>
         </is>

--- a/CPO Dashboard/CPO_Dashboard.xlsx
+++ b/CPO Dashboard/CPO_Dashboard.xlsx
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="C10" s="8" t="n">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="C11" s="8" t="n">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="C12" s="8" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B13" s="7" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="C13" s="8" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D14" s="9" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="B5" s="24" t="n">
-        <v>361602</v>
+        <v>236412</v>
       </c>
     </row>
     <row r="7">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="B15" s="24" t="n">
-        <v>45771</v>
+        <v>33000</v>
       </c>
       <c r="C15" s="11">
         <f>B15</f>
